--- a/Inputs/two_degree/mineralPrice.xlsx
+++ b/Inputs/two_degree/mineralPrice.xlsx
@@ -226,13 +226,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -322,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -336,28 +342,28 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -366,8 +372,14 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -379,10 +391,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
@@ -695,17 +707,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="53.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="21" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="53.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -723,7 +735,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -741,7 +753,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -759,7 +771,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -777,7 +789,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -795,7 +807,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -813,7 +825,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -831,7 +843,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -849,7 +861,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -867,7 +879,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -885,7 +897,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -903,7 +915,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -921,7 +933,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
@@ -939,7 +951,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
@@ -993,7 +1005,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1023,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1059,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1877,9 +1889,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="7"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -1887,8 +1899,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="1"/>
       <c r="E67" s="7"/>
       <c r="F67" s="4"/>
@@ -1897,8 +1909,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="1"/>
       <c r="E68" s="7"/>
       <c r="F68" s="4"/>
@@ -1907,8 +1919,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="1"/>
       <c r="E69" s="7"/>
       <c r="F69" s="4"/>
@@ -1917,9 +1929,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="4"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="7"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -1927,9 +1939,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="4"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="7"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
